--- a/data/trans_orig/P14B17-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14B17-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AAD5A787-807A-495B-BF0F-21C6643A66B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5BC72C4-132D-4FE8-8EFE-3F4F69EBAD8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E77DA02E-B817-432F-80C5-180CCEBEEB9B}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{24CF6927-8ED7-48D2-8757-741C8104F0B7}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="282">
   <si>
     <t>Población cuya anemia le limita en 2012 (Tasa respuesta: 1,57%)</t>
   </si>
@@ -106,19 +106,19 @@
     <t>34,88%</t>
   </si>
   <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>65,07%</t>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>67,01%</t>
   </si>
   <si>
     <t>32,62%</t>
   </si>
   <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>63,34%</t>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>61,47%</t>
   </si>
   <si>
     <t>22,85%</t>
@@ -127,19 +127,19 @@
     <t>65,12%</t>
   </si>
   <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
   </si>
   <si>
     <t>67,38%</t>
   </si>
   <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -148,55 +148,55 @@
     <t>43,52%</t>
   </si>
   <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
   </si>
   <si>
     <t>66,68%</t>
   </si>
   <si>
-    <t>48,16%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>81,33%</t>
   </si>
   <si>
     <t>62,56%</t>
   </si>
   <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>76,47%</t>
   </si>
   <si>
     <t>56,48%</t>
   </si>
   <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
   </si>
   <si>
     <t>33,32%</t>
   </si>
   <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>51,84%</t>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
   </si>
   <si>
     <t>37,44%</t>
   </si>
   <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>54,32%</t>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>55,56%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -205,37 +205,37 @@
     <t>45,61%</t>
   </si>
   <si>
-    <t>24,78%</t>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>68,95%</t>
+  </si>
+  <si>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
   </si>
   <si>
     <t>72,98%</t>
   </si>
   <si>
-    <t>48,38%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
-  </si>
-  <si>
     <t>54,39%</t>
   </si>
   <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>78,43%</t>
+  </si>
+  <si>
+    <t>51,62%</t>
+  </si>
+  <si>
     <t>27,02%</t>
   </si>
   <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>51,62%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>73,56%</t>
+    <t>74,06%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -250,19 +250,19 @@
     <t>25,17%</t>
   </si>
   <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
   </si>
   <si>
     <t>27,72%</t>
   </si>
   <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>45,07%</t>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>48,17%</t>
   </si>
   <si>
     <t>59,94%</t>
@@ -274,73 +274,73 @@
     <t>74,83%</t>
   </si>
   <si>
-    <t>54,82%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
+    <t>53,94%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
   </si>
   <si>
     <t>72,28%</t>
   </si>
   <si>
-    <t>54,93%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
+    <t>51,83%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
   </si>
   <si>
     <t>43,5%</t>
   </si>
   <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>72,71%</t>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>71,89%</t>
   </si>
   <si>
     <t>44,71%</t>
   </si>
   <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>54,92%</t>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>55,04%</t>
   </si>
   <si>
     <t>44,55%</t>
   </si>
   <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>54,31%</t>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
   </si>
   <si>
     <t>56,5%</t>
   </si>
   <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>78,62%</t>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>84,68%</t>
   </si>
   <si>
     <t>55,29%</t>
   </si>
   <si>
-    <t>45,08%</t>
-  </si>
-  <si>
-    <t>64,71%</t>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>66,14%</t>
   </si>
   <si>
     <t>55,45%</t>
   </si>
   <si>
-    <t>45,69%</t>
-  </si>
-  <si>
-    <t>65,32%</t>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>64,85%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -355,7 +355,7 @@
     <t>69,12%</t>
   </si>
   <si>
-    <t>20,24%</t>
+    <t>20,93%</t>
   </si>
   <si>
     <t>42,58%</t>
@@ -364,7 +364,7 @@
     <t>30,88%</t>
   </si>
   <si>
-    <t>79,76%</t>
+    <t>79,07%</t>
   </si>
   <si>
     <t>52,0%</t>
@@ -373,349 +373,361 @@
     <t>38,44%</t>
   </si>
   <si>
-    <t>17,43%</t>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>67,08%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>63,5%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>61,56%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>59,01%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>62,39%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>45,25%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>54,75%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>57,88%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>59,92%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>62,14%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>62,94%</t>
+  </si>
+  <si>
+    <t>40,08%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>67,07%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>53,33%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>57,06%</t>
+  </si>
+  <si>
+    <t>64,97%</t>
+  </si>
+  <si>
+    <t>46,67%</t>
+  </si>
+  <si>
+    <t>82,08%</t>
+  </si>
+  <si>
+    <t>62,97%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>78,26%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>46,1%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>67,02%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
+  </si>
+  <si>
+    <t>64,29%</t>
+  </si>
+  <si>
+    <t>53,9%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>Población cuya anemia le limita en 2023 (Tasa respuesta: 3,56%)</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>51,53%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>48,47%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>51,43%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>67,85%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>62,28%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
   </si>
   <si>
     <t>66,15%</t>
   </si>
   <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>61,56%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>59,01%</t>
-  </si>
-  <si>
-    <t>79,86%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>62,39%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>45,0%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>78,51%</t>
-  </si>
-  <si>
-    <t>55,0%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>59,92%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>57,69%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>62,46%</t>
-  </si>
-  <si>
-    <t>40,08%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>67,07%</t>
-  </si>
-  <si>
-    <t>42,31%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>37,54%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>59,27%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>64,97%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>62,97%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>68,97%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>74,92%</t>
-  </si>
-  <si>
-    <t>67,02%</t>
-  </si>
-  <si>
-    <t>56,44%</t>
-  </si>
-  <si>
-    <t>75,77%</t>
-  </si>
-  <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>73,37%</t>
-  </si>
-  <si>
-    <t>Población cuya anemia le limita en 2023 (Tasa respuesta: 3,56%)</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>54,62%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>45,38%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>56,05%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>62,28%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>65,79%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
+    <t>90,64%</t>
   </si>
   <si>
     <t>75,63%</t>
   </si>
   <si>
-    <t>86,31%</t>
+    <t>61,62%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
   </si>
   <si>
     <t>30,3%</t>
   </si>
   <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>53,68%</t>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>52,02%</t>
   </si>
   <si>
     <t>33,15%</t>
   </si>
   <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
   </si>
   <si>
     <t>32,41%</t>
   </si>
   <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
   </si>
   <si>
     <t>69,7%</t>
   </si>
   <si>
-    <t>46,32%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
+    <t>47,98%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
   </si>
   <si>
     <t>66,85%</t>
   </si>
   <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>76,84%</t>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>77,08%</t>
   </si>
   <si>
     <t>67,59%</t>
   </si>
   <si>
-    <t>55,95%</t>
-  </si>
-  <si>
-    <t>76,4%</t>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
   </si>
   <si>
     <t>57,62%</t>
@@ -730,19 +742,19 @@
     <t>17,17%</t>
   </si>
   <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
   </si>
   <si>
     <t>23,36%</t>
   </si>
   <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
   </si>
   <si>
     <t>42,38%</t>
@@ -757,127 +769,121 @@
     <t>82,83%</t>
   </si>
   <si>
-    <t>63,74%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
+    <t>65,06%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
   </si>
   <si>
     <t>76,64%</t>
   </si>
   <si>
-    <t>60,67%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
+    <t>61,21%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
   </si>
   <si>
     <t>49,27%</t>
   </si>
   <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
   </si>
   <si>
     <t>27,81%</t>
   </si>
   <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
   </si>
   <si>
     <t>30,85%</t>
   </si>
   <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>41,96%</t>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
   </si>
   <si>
     <t>50,73%</t>
   </si>
   <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
   </si>
   <si>
     <t>72,19%</t>
   </si>
   <si>
-    <t>60,97%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
+    <t>60,31%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
   </si>
   <si>
     <t>69,15%</t>
   </si>
   <si>
-    <t>58,04%</t>
-  </si>
-  <si>
-    <t>79,38%</t>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
   </si>
   <si>
     <t>40,68%</t>
   </si>
   <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>54,77%</t>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>53,49%</t>
   </si>
   <si>
     <t>24,99%</t>
   </si>
   <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
   </si>
   <si>
     <t>59,32%</t>
   </si>
   <si>
-    <t>45,23%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>72,06%</t>
   </si>
   <si>
     <t>75,01%</t>
   </si>
   <si>
-    <t>68,27%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>71,89%</t>
-  </si>
-  <si>
-    <t>66,0%</t>
-  </si>
-  <si>
-    <t>76,91%</t>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>66,01%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
   </si>
 </sst>
 </file>
@@ -1289,7 +1295,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6B4C9C2-926D-476A-AFCC-2768ECC91CAD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5BB9611-717B-41E4-BC80-EBDC154EDBEB}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2346,7 +2352,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD52FA8-7CFF-497E-BEE2-583C2B181873}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{302752E1-B7D7-4CAA-BD7C-5AAEF6808658}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2661,7 +2667,7 @@
         <v>114</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2676,7 +2682,7 @@
         <v>1757</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>12</v>
@@ -2691,13 +2697,13 @@
         <v>9731</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M8" s="7">
         <v>11</v>
@@ -2706,13 +2712,13 @@
         <v>11488</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2780,13 +2786,13 @@
         <v>1949</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -2795,13 +2801,13 @@
         <v>4600</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -2810,13 +2816,13 @@
         <v>6549</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2831,10 +2837,10 @@
         <v>6241</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>16</v>
@@ -2846,13 +2852,13 @@
         <v>16805</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M11" s="7">
         <v>22</v>
@@ -2861,13 +2867,13 @@
         <v>23046</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2935,10 +2941,10 @@
         <v>2850</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>16</v>
@@ -2950,13 +2956,13 @@
         <v>5623</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -2965,13 +2971,13 @@
         <v>8474</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2986,13 +2992,13 @@
         <v>1907</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H14" s="7">
         <v>11</v>
@@ -3001,13 +3007,13 @@
         <v>11454</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M14" s="7">
         <v>13</v>
@@ -3016,13 +3022,13 @@
         <v>13360</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3105,13 +3111,13 @@
         <v>9946</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -3120,13 +3126,13 @@
         <v>10848</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3156,13 +3162,13 @@
         <v>18449</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M17" s="7">
         <v>17</v>
@@ -3171,13 +3177,13 @@
         <v>18449</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3245,13 +3251,13 @@
         <v>9191</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H19" s="7">
         <v>26</v>
@@ -3260,13 +3266,13 @@
         <v>28652</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M19" s="7">
         <v>35</v>
@@ -3275,13 +3281,13 @@
         <v>37843</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3296,13 +3302,13 @@
         <v>9905</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H20" s="7">
         <v>55</v>
@@ -3311,13 +3317,13 @@
         <v>58222</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M20" s="7">
         <v>65</v>
@@ -3326,13 +3332,13 @@
         <v>68127</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3409,7 +3415,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4297B02E-B77F-4217-A652-EBB187FFBD0E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CEC7C4B-1715-42C8-9EF8-2A657D96417B}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3426,7 +3432,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3548,13 +3554,13 @@
         <v>716</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -3563,13 +3569,13 @@
         <v>716</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3599,10 +3605,10 @@
         <v>3659</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>16</v>
@@ -3614,10 +3620,10 @@
         <v>4009</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>16</v>
@@ -3688,13 +3694,13 @@
         <v>3313</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H7" s="7">
         <v>10</v>
@@ -3703,13 +3709,13 @@
         <v>4315</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M7" s="7">
         <v>15</v>
@@ -3718,13 +3724,13 @@
         <v>7629</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>142</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3739,13 +3745,13 @@
         <v>5471</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H8" s="7">
         <v>34</v>
@@ -3754,13 +3760,13 @@
         <v>18208</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="M8" s="7">
         <v>45</v>
@@ -3769,13 +3775,13 @@
         <v>23678</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3843,13 +3849,13 @@
         <v>4693</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="H10" s="7">
         <v>24</v>
@@ -3858,13 +3864,13 @@
         <v>14533</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M10" s="7">
         <v>31</v>
@@ -3873,13 +3879,13 @@
         <v>19226</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3894,13 +3900,13 @@
         <v>10794</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="H11" s="7">
         <v>47</v>
@@ -3909,13 +3915,13 @@
         <v>29307</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="M11" s="7">
         <v>61</v>
@@ -3924,13 +3930,13 @@
         <v>40101</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3998,13 +4004,13 @@
         <v>4408</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -4013,13 +4019,13 @@
         <v>7264</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="M13" s="7">
         <v>12</v>
@@ -4028,13 +4034,13 @@
         <v>11672</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4049,13 +4055,13 @@
         <v>3243</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="H14" s="7">
         <v>47</v>
@@ -4064,13 +4070,13 @@
         <v>35054</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="M14" s="7">
         <v>52</v>
@@ -4079,13 +4085,13 @@
         <v>38297</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4153,13 +4159,13 @@
         <v>4096</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="H16" s="7">
         <v>21</v>
@@ -4168,13 +4174,13 @@
         <v>14014</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="M16" s="7">
         <v>26</v>
@@ -4183,13 +4189,13 @@
         <v>18109</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4204,13 +4210,13 @@
         <v>4218</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="H17" s="7">
         <v>51</v>
@@ -4219,13 +4225,13 @@
         <v>36381</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="M17" s="7">
         <v>58</v>
@@ -4234,13 +4240,13 @@
         <v>40600</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4308,13 +4314,13 @@
         <v>16510</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="H19" s="7">
         <v>65</v>
@@ -4323,13 +4329,13 @@
         <v>40842</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="M19" s="7">
         <v>86</v>
@@ -4338,13 +4344,13 @@
         <v>57352</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>268</v>
+        <v>93</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4359,13 +4365,13 @@
         <v>24075</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="H20" s="7">
         <v>187</v>
@@ -4374,13 +4380,13 @@
         <v>122610</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="M20" s="7">
         <v>225</v>
@@ -4389,13 +4395,13 @@
         <v>146685</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>277</v>
+        <v>85</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14B17-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14B17-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5BC72C4-132D-4FE8-8EFE-3F4F69EBAD8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A09D4D6E-43F8-429E-A00C-6A37BE3947F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{24CF6927-8ED7-48D2-8757-741C8104F0B7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DD9AA463-761B-4BEC-8A56-CF7BCE040A77}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="284">
   <si>
     <t>Población cuya anemia le limita en 2012 (Tasa respuesta: 1,57%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -97,7 +97,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>77,15%</t>
@@ -106,19 +106,19 @@
     <t>34,88%</t>
   </si>
   <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>67,01%</t>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>66,55%</t>
   </si>
   <si>
     <t>32,62%</t>
   </si>
   <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>64,18%</t>
   </si>
   <si>
     <t>22,85%</t>
@@ -127,115 +127,115 @@
     <t>65,12%</t>
   </si>
   <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
   </si>
   <si>
     <t>67,38%</t>
   </si>
   <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>43,52%</t>
   </si>
   <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
   </si>
   <si>
     <t>66,68%</t>
   </si>
   <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
   </si>
   <si>
     <t>62,56%</t>
   </si>
   <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>76,47%</t>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>77,89%</t>
   </si>
   <si>
     <t>56,48%</t>
   </si>
   <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>85,99%</t>
   </si>
   <si>
     <t>33,32%</t>
   </si>
   <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>51,01%</t>
   </si>
   <si>
     <t>37,44%</t>
   </si>
   <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>55,56%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>45,61%</t>
   </si>
   <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>68,95%</t>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>67,95%</t>
   </si>
   <si>
     <t>48,38%</t>
   </si>
   <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>72,98%</t>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>70,31%</t>
   </si>
   <si>
     <t>54,39%</t>
   </si>
   <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>78,43%</t>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>75,99%</t>
   </si>
   <si>
     <t>51,62%</t>
   </si>
   <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>74,06%</t>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>74,46%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -244,640 +244,646 @@
     <t>40,06%</t>
   </si>
   <si>
-    <t>80,5%</t>
+    <t>80,52%</t>
   </si>
   <si>
     <t>25,17%</t>
   </si>
   <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>49,75%</t>
   </si>
   <si>
     <t>27,72%</t>
   </si>
   <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>48,17%</t>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>45,3%</t>
   </si>
   <si>
     <t>59,94%</t>
   </si>
   <si>
-    <t>19,5%</t>
+    <t>19,48%</t>
   </si>
   <si>
     <t>74,83%</t>
   </si>
   <si>
-    <t>53,94%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
   </si>
   <si>
     <t>72,28%</t>
   </si>
   <si>
-    <t>51,83%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
+    <t>54,7%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
   </si>
   <si>
     <t>43,5%</t>
   </si>
   <si>
-    <t>15,32%</t>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>71,53%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>57,01%</t>
+  </si>
+  <si>
+    <t>44,55%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>56,5%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>78,58%</t>
+  </si>
+  <si>
+    <t>55,29%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>66,11%</t>
+  </si>
+  <si>
+    <t>55,45%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>65,36%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población cuya anemia le limita en 2016 (Tasa respuesta: 1,52%)</t>
+  </si>
+  <si>
+    <t>57,42%</t>
+  </si>
+  <si>
+    <t>69,12%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>64,5%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>63,83%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>61,56%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>59,01%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>62,27%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>43,17%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>56,83%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>59,92%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>59,33%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>59,68%</t>
+  </si>
+  <si>
+    <t>40,08%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>67,07%</t>
+  </si>
+  <si>
+    <t>40,67%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>54,77%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>54,4%</t>
+  </si>
+  <si>
+    <t>64,97%</t>
+  </si>
+  <si>
+    <t>45,23%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>62,97%</t>
+  </si>
+  <si>
+    <t>45,6%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>45,19%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>74,61%</t>
+  </si>
+  <si>
+    <t>67,02%</t>
+  </si>
+  <si>
+    <t>54,81%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>64,29%</t>
+  </si>
+  <si>
+    <t>55,04%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>Población cuya anemia le limita en 2023 (Tasa respuesta: 3,56%)</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>51,53%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>48,47%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>51,43%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>67,85%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>62,28%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>66,15%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>61,62%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>52,02%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
+  </si>
+  <si>
+    <t>47,98%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>66,85%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>77,08%</t>
+  </si>
+  <si>
+    <t>67,59%</t>
+  </si>
+  <si>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>57,62%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>81,18%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>65,06%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>76,64%</t>
+  </si>
+  <si>
+    <t>61,21%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>49,27%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>72,19%</t>
+  </si>
+  <si>
+    <t>60,31%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>69,15%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>53,49%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>72,06%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
   </si>
   <si>
     <t>71,89%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>55,04%</t>
-  </si>
-  <si>
-    <t>44,55%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>54,13%</t>
-  </si>
-  <si>
-    <t>56,5%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>55,29%</t>
-  </si>
-  <si>
-    <t>44,96%</t>
-  </si>
-  <si>
-    <t>66,14%</t>
-  </si>
-  <si>
-    <t>55,45%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>64,85%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población cuya anemia le limita en 2015 (Tasa respuesta: 1,52%)</t>
-  </si>
-  <si>
-    <t>57,42%</t>
-  </si>
-  <si>
-    <t>69,12%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>52,0%</t>
-  </si>
-  <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>67,08%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>63,5%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>61,56%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>59,01%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>62,39%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>45,25%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>78,51%</t>
-  </si>
-  <si>
-    <t>54,75%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>57,88%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>59,92%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>62,14%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>62,94%</t>
-  </si>
-  <si>
-    <t>40,08%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>67,07%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>53,33%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>57,06%</t>
-  </si>
-  <si>
-    <t>64,97%</t>
-  </si>
-  <si>
-    <t>46,67%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>62,97%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
-  </si>
-  <si>
-    <t>78,26%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>71,97%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>46,1%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
-  </si>
-  <si>
-    <t>67,02%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>53,9%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>Población cuya anemia le limita en 2023 (Tasa respuesta: 3,56%)</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>51,53%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>48,57%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>48,47%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>51,43%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>67,85%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>62,28%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>66,15%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>61,62%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>52,02%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>42,49%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>66,85%</t>
-  </si>
-  <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>77,08%</t>
-  </si>
-  <si>
-    <t>67,59%</t>
-  </si>
-  <si>
-    <t>57,51%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>81,18%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>65,06%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>76,64%</t>
-  </si>
-  <si>
-    <t>61,21%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>41,68%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>72,19%</t>
-  </si>
-  <si>
-    <t>60,31%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>69,15%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
-  </si>
-  <si>
-    <t>78,83%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>53,49%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>72,06%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>68,28%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
   </si>
   <si>
     <t>66,01%</t>
@@ -1295,7 +1301,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5BB9611-717B-41E4-BC80-EBDC154EDBEB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7155978-BC80-4810-8A55-8D88F4FF6D97}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2352,7 +2358,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{302752E1-B7D7-4CAA-BD7C-5AAEF6808658}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F648F421-0E9E-404A-A0C5-49BC0AFE44EA}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3415,7 +3421,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CEC7C4B-1715-42C8-9EF8-2A657D96417B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F42E307-9038-4A54-BFF0-03D66D0A3634}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4344,13 +4350,13 @@
         <v>57352</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>93</v>
+        <v>272</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4365,13 +4371,13 @@
         <v>24075</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H20" s="7">
         <v>187</v>
@@ -4380,13 +4386,13 @@
         <v>122610</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M20" s="7">
         <v>225</v>
@@ -4395,13 +4401,13 @@
         <v>146685</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>85</v>
+        <v>281</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
